--- a/src/test/resources/Documents/33239/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/33239/Actual/JobMaterial.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Materialtype</t>
   </si>
@@ -47,37 +47,49 @@
     <t>Sheet</t>
   </si>
   <si>
+    <t>Front &amp; Spine Insert  2p</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Blazer Satin Cover Digital FSC - 100 # 19 x 13" 200 ppi</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>sheets (thousand)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>215042V - 100# 19x13 Blazer Satin Cover 95M FSC</t>
+  </si>
+  <si>
     <t>Content Sheets  2p</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Blazer Satin Text Digital FSC - 80 # 13 x 19" 500 ppi</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>sheets (thousand)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>215039v - 80# 13x19 Blazer Satin Book 42M FSC</t>
   </si>
   <si>
-    <t>Front &amp; Spine Insert  2p</t>
-  </si>
-  <si>
-    <t>Blazer Satin Cover Digital FSC - 100 # 19 x 13" 200 ppi</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>215042V - 100# 19x13 Blazer Satin Cover 95M FSC</t>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Drill Standard</t>
+  </si>
+  <si>
+    <t>Astrobrights Text Smooth "COLORS" 10%PCW FSC - 70 # 8.5 x 11" 370 ppi</t>
+  </si>
+  <si>
+    <t>34.00</t>
   </si>
 </sst>
 </file>
@@ -85,13 +97,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="26">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -199,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -218,6 +270,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -314,6 +374,32 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="18">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="20">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="21">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="22">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="25">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
